--- a/extracted_nouns/BNC/nouns_bnc+lbl+key+ani_mid.xlsx
+++ b/extracted_nouns/BNC/nouns_bnc+lbl+key+ani_mid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iojdw\Research\extracted_nouns\BNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB37241B-3DCF-400E-90CA-A4C318AD03A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5564E2-FEAF-47C9-9C78-36187E055D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21525" yWindow="2775" windowWidth="14400" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="649">
   <si>
     <t>people</t>
   </si>
@@ -1984,19 +1984,6 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ユウセイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神・精霊・霊魂</t>
-    <rPh sb="0" eb="1">
-      <t>カミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイレイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイコン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2039,6 +2026,36 @@
     <rPh sb="3" eb="6">
       <t>ビセイブツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←ここからplant/collective/spirit/brainのみラベル付け</t>
+    <rPh sb="39" eb="40">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神・精霊・霊魂・天使・空想のもの</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイコン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>special</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5369,11 +5386,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I263"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5389,7 +5406,7 @@
     <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>631</v>
       </c>
@@ -5400,7 +5417,7 @@
         <v>633</v>
       </c>
       <c r="D1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E1" t="s">
         <v>636</v>
@@ -5415,10 +5432,13 @@
         <v>639</v>
       </c>
       <c r="I1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="J1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -5432,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -5446,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>371</v>
       </c>
@@ -5460,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -5477,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>373</v>
       </c>
@@ -5488,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>374</v>
       </c>
@@ -5505,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>375</v>
       </c>
@@ -5516,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>376</v>
       </c>
@@ -5527,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>377</v>
       </c>
@@ -5538,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>378</v>
       </c>
@@ -5549,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>379</v>
       </c>
@@ -5560,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>380</v>
       </c>
@@ -5574,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>381</v>
       </c>
@@ -5591,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>382</v>
       </c>
@@ -5602,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>383</v>
       </c>
@@ -5619,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>384</v>
       </c>
@@ -5633,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>385</v>
       </c>
@@ -5647,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>386</v>
       </c>
@@ -5658,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>387</v>
       </c>
@@ -5669,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -5683,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -5697,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -5711,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>391</v>
       </c>
@@ -5725,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>392</v>
       </c>
@@ -5742,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>393</v>
       </c>
@@ -5756,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>394</v>
       </c>
@@ -5764,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>395</v>
       </c>
@@ -5775,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>396</v>
       </c>
@@ -5789,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>397</v>
       </c>
@@ -5803,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>398</v>
       </c>
@@ -5817,15 +5837,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>399</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>400</v>
       </c>
@@ -5833,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>401</v>
       </c>
@@ -5841,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>402</v>
       </c>
@@ -5849,55 +5872,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>403</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>404</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>405</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>406</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>407</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>408</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>409</v>
       </c>
@@ -5905,47 +5952,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>410</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>411</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>412</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>413</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>414</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -5953,31 +6015,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>416</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>417</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>418</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>419</v>
       </c>
@@ -5985,47 +6056,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>420</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>421</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>422</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>423</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>424</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -6033,15 +6122,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>426</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>427</v>
       </c>
@@ -6049,7 +6141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>428</v>
       </c>
@@ -6057,7 +6149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>429</v>
       </c>
@@ -6065,15 +6157,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>430</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>431</v>
       </c>
@@ -6081,15 +6176,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>432</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>433</v>
       </c>
@@ -6097,7 +6195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>434</v>
       </c>
@@ -6105,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>435</v>
       </c>
@@ -6113,7 +6211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>436</v>
       </c>
@@ -6121,15 +6219,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>437</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>438</v>
       </c>
@@ -6137,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>439</v>
       </c>
@@ -6145,31 +6246,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>440</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>441</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>442</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>443</v>
       </c>
@@ -6177,15 +6287,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>444</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>445</v>
       </c>
@@ -6193,7 +6306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>446</v>
       </c>
@@ -6201,15 +6314,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>447</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>448</v>
       </c>
@@ -6217,7 +6333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>449</v>
       </c>
@@ -6225,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>450</v>
       </c>
@@ -6233,15 +6349,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>451</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -6249,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -6257,15 +6376,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>454</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>455</v>
       </c>
@@ -6273,7 +6395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>456</v>
       </c>
@@ -6281,7 +6403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>457</v>
       </c>
@@ -6289,15 +6411,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>459</v>
       </c>
@@ -6305,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>460</v>
       </c>
@@ -6313,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>461</v>
       </c>
@@ -6321,7 +6443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>462</v>
       </c>
@@ -6329,23 +6451,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>463</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>464</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>465</v>
       </c>
@@ -6353,7 +6481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>466</v>
       </c>
@@ -6361,15 +6489,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>467</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>468</v>
       </c>
@@ -6377,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>469</v>
       </c>
@@ -6385,15 +6516,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>470</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>471</v>
       </c>
@@ -6401,23 +6535,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>472</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>473</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>474</v>
       </c>
@@ -6425,7 +6565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>475</v>
       </c>
@@ -6433,15 +6573,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>476</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>477</v>
       </c>
@@ -6449,7 +6592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>478</v>
       </c>
@@ -6457,7 +6600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>479</v>
       </c>
@@ -6465,7 +6608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>480</v>
       </c>
@@ -6473,15 +6616,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>481</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>482</v>
       </c>
@@ -6489,15 +6635,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>483</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>484</v>
       </c>
@@ -6505,7 +6654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>485</v>
       </c>
@@ -6513,23 +6662,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>486</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>487</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>488</v>
       </c>
@@ -6537,7 +6692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>489</v>
       </c>
@@ -6545,15 +6700,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>490</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>491</v>
       </c>
@@ -6561,7 +6719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -6569,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>493</v>
       </c>
@@ -6577,7 +6735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>494</v>
       </c>
@@ -6585,7 +6743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>495</v>
       </c>
@@ -6593,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>496</v>
       </c>
@@ -6601,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>497</v>
       </c>
@@ -6609,15 +6767,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>498</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>499</v>
       </c>
@@ -6625,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>500</v>
       </c>
@@ -6633,23 +6794,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>501</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>502</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>503</v>
       </c>
@@ -6657,7 +6824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>504</v>
       </c>
@@ -6665,7 +6832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>505</v>
       </c>
@@ -6673,7 +6840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>506</v>
       </c>
@@ -6681,15 +6848,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>507</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>508</v>
       </c>
@@ -6697,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>509</v>
       </c>
@@ -6705,15 +6875,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>510</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>511</v>
       </c>
@@ -6721,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>512</v>
       </c>
@@ -6729,31 +6902,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>513</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>514</v>
       </c>
       <c r="B147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>515</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>516</v>
       </c>
@@ -6761,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>517</v>
       </c>
@@ -6769,15 +6951,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>518</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>519</v>
       </c>
@@ -6785,23 +6970,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>520</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>521</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>522</v>
       </c>
@@ -6809,55 +7000,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>523</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>524</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>525</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>526</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>527</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>528</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>529</v>
       </c>
@@ -6865,7 +7074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>530</v>
       </c>
@@ -6873,7 +7082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>531</v>
       </c>
@@ -6881,15 +7090,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>532</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>533</v>
       </c>
@@ -6897,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>534</v>
       </c>
@@ -6905,7 +7117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>535</v>
       </c>
@@ -6913,7 +7125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>536</v>
       </c>
@@ -6921,15 +7133,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>537</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>538</v>
       </c>
@@ -6937,7 +7152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>539</v>
       </c>
@@ -6945,15 +7160,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>540</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>541</v>
       </c>
@@ -6961,7 +7179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>542</v>
       </c>
@@ -6969,15 +7187,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>543</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>544</v>
       </c>
@@ -6985,7 +7206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>545</v>
       </c>
@@ -6993,23 +7214,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>546</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>547</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>548</v>
       </c>
@@ -7017,7 +7244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>549</v>
       </c>
@@ -7025,15 +7252,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>550</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -7041,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>552</v>
       </c>
@@ -7049,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>553</v>
       </c>
@@ -7057,15 +7287,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>554</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>555</v>
       </c>
@@ -7073,7 +7306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>556</v>
       </c>
@@ -7081,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>557</v>
       </c>
@@ -7089,7 +7322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>558</v>
       </c>
@@ -7097,7 +7330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>559</v>
       </c>
@@ -7105,47 +7338,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>560</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>561</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>562</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>563</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>564</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>565</v>
       </c>
@@ -7153,15 +7401,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>566</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>567</v>
       </c>
@@ -7169,7 +7420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>568</v>
       </c>
@@ -7177,31 +7428,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>569</v>
       </c>
       <c r="B202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>570</v>
       </c>
       <c r="B203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>571</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>572</v>
       </c>
@@ -7209,23 +7469,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>573</v>
       </c>
       <c r="B206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>574</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>575</v>
       </c>
@@ -7233,31 +7502,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>576</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>577</v>
       </c>
       <c r="B210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>578</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>579</v>
       </c>
@@ -7265,7 +7543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>580</v>
       </c>
@@ -7273,7 +7551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>581</v>
       </c>
@@ -7281,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>582</v>
       </c>
@@ -7289,23 +7567,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>583</v>
       </c>
       <c r="B216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>584</v>
       </c>
       <c r="B217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>585</v>
       </c>
@@ -7313,15 +7597,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>586</v>
       </c>
       <c r="B219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>587</v>
       </c>
@@ -7329,15 +7616,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>588</v>
       </c>
       <c r="B221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>589</v>
       </c>
@@ -7345,7 +7635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>590</v>
       </c>
@@ -7353,7 +7643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>591</v>
       </c>
@@ -7361,15 +7651,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>592</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>593</v>
       </c>
@@ -7377,15 +7670,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>594</v>
       </c>
       <c r="B227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>595</v>
       </c>
@@ -7393,7 +7689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>596</v>
       </c>
@@ -7401,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>597</v>
       </c>
@@ -7409,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>598</v>
       </c>
@@ -7417,39 +7713,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>599</v>
       </c>
       <c r="B232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>600</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>601</v>
       </c>
       <c r="B234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>602</v>
       </c>
       <c r="B235">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>603</v>
       </c>
@@ -7457,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>604</v>
       </c>
@@ -7465,7 +7773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>605</v>
       </c>
@@ -7473,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>606</v>
       </c>
@@ -7481,7 +7789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>607</v>
       </c>
@@ -7489,7 +7797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>608</v>
       </c>
@@ -7497,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>609</v>
       </c>
@@ -7505,7 +7813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>610</v>
       </c>
@@ -7513,7 +7821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>611</v>
       </c>
@@ -7521,7 +7829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>612</v>
       </c>
@@ -7529,23 +7837,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>613</v>
       </c>
       <c r="B246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>614</v>
       </c>
       <c r="B247">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>615</v>
       </c>
@@ -7553,15 +7867,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>616</v>
       </c>
       <c r="B249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>617</v>
       </c>
@@ -7569,7 +7886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>618</v>
       </c>
@@ -7577,15 +7894,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>619</v>
       </c>
       <c r="B252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>620</v>
       </c>
@@ -7593,7 +7913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>621</v>
       </c>
@@ -7601,15 +7921,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>622</v>
       </c>
       <c r="B255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>623</v>
       </c>
@@ -7617,7 +7940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>624</v>
       </c>
@@ -7625,7 +7948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>625</v>
       </c>
@@ -7633,15 +7956,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>626</v>
       </c>
       <c r="B259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -7649,7 +7975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>628</v>
       </c>
@@ -7657,7 +7983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>629</v>
       </c>
@@ -7665,12 +7991,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>630</v>
       </c>
       <c r="B263">
         <v>2</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7683,7 +8012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C54B64A-C8FF-4821-8FEC-61BDD7D43A87}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7697,10 +8028,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2" t="s">
         <v>643</v>
-      </c>
-      <c r="B2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7724,7 +8055,7 @@
         <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7732,15 +8063,15 @@
         <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B7" t="s">
         <v>645</v>
-      </c>
-      <c r="B7" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/extracted_nouns/BNC/nouns_bnc+lbl+key+ani_mid.xlsx
+++ b/extracted_nouns/BNC/nouns_bnc+lbl+key+ani_mid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iojdw\Research\extracted_nouns\BNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5564E2-FEAF-47C9-9C78-36187E055D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612CADC-2E58-4EA7-921C-FC02C0C7216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21525" yWindow="2775" windowWidth="14400" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -5389,8 +5389,8 @@
   <dimension ref="A1:J263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>464</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>465</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>466</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>468</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>469</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>470</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>471</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>472</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>473</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>474</v>
       </c>
@@ -6565,15 +6565,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>475</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>476</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>477</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>478</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>479</v>
       </c>

--- a/extracted_nouns/BNC/nouns_bnc+lbl+key+ani_mid.xlsx
+++ b/extracted_nouns/BNC/nouns_bnc+lbl+key+ani_mid.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iojdw\Research\extracted_nouns\BNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612CADC-2E58-4EA7-921C-FC02C0C7216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE36095-61AD-4AD6-BD38-6B36B255FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="attribute" sheetId="3" r:id="rId3"/>
+    <sheet name="2 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2 (2)'!$L$1:$L$263</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="649">
   <si>
     <t>people</t>
   </si>
@@ -2063,7 +2068,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2076,6 +2081,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2105,9 +2116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5389,8 +5401,8 @@
   <dimension ref="A1:J263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8081,4 +8093,5914 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C60E2D-20C7-4A25-BDCF-E69AB4173789}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L263"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G263" sqref="G263"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H1" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J1" t="s">
+        <v>648</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" ref="L1:L64" si="0">IF(OR(F1=1,G1=1,H1=1,I1=1), A1, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>life</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>party</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>family</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>council</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>police</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>age</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>class</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>team</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>committee</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>town</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>board</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>tree</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>plant</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>couple</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>cell</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>army</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>spirit</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>pair</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>398</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>646</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>public</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>flower</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>forest</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v>wood</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>407</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v>audience</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>408</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>god</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>household</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>411</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>ministry</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>413</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v>troop</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v>mass</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>leaf</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v>panel</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>418</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v>lord</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>419</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>420</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v>parish</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v>fan</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v>grass</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v>crew</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>424</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v>being</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v>rose</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>428</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v>personnel</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>431</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="L65" t="str">
+        <f t="shared" ref="L65:L128" si="1">IF(OR(F65=1,G65=1,H65=1,I65=1), A65, "")</f>
+        <v>green</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>433</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>434</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>435</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>437</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="L70" t="str">
+        <f t="shared" si="1"/>
+        <v>apple</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>438</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>439</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>440</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="L73" t="str">
+        <f t="shared" si="1"/>
+        <v>seed</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>441</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="L74" t="str">
+        <f t="shared" si="1"/>
+        <v>constituency</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>442</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="L75" t="str">
+        <f t="shared" si="1"/>
+        <v>squad</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>444</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="L77" t="str">
+        <f t="shared" si="1"/>
+        <v>potato</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>445</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>446</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>447</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="L80" t="str">
+        <f t="shared" si="1"/>
+        <v>jury</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>448</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>449</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>450</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>451</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="L84" t="str">
+        <f t="shared" si="1"/>
+        <v>folk</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>452</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>453</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="L87" t="str">
+        <f t="shared" si="1"/>
+        <v>black</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>455</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>456</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>457</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>459</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>460</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>461</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>463</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="L96" t="str">
+        <f t="shared" si="1"/>
+        <v>white</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>464</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="L97" t="str">
+        <f t="shared" si="1"/>
+        <v>leaflet</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>465</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="L100" t="str">
+        <f t="shared" si="1"/>
+        <v>wildlife</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>468</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>469</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>470</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="L103" t="str">
+        <f t="shared" si="1"/>
+        <v>fig</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>471</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>472</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="L105" t="str">
+        <f t="shared" si="1"/>
+        <v>bush</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>473</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="L106" t="str">
+        <f t="shared" si="1"/>
+        <v>gang</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>474</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>475</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2">
+        <v>1</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="1"/>
+        <v>virus</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>476</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2">
+        <v>1</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="L109" t="str">
+        <f t="shared" si="1"/>
+        <v>angel</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>477</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>478</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>479</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>480</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>481</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="L114" t="str">
+        <f t="shared" si="1"/>
+        <v>ghost</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>482</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>483</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="L116" t="str">
+        <f t="shared" si="1"/>
+        <v>delegation</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>484</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>485</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>486</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="L119" t="str">
+        <f t="shared" si="1"/>
+        <v>giant</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>487</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="L120" t="str">
+        <f t="shared" si="1"/>
+        <v>bean</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>488</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>489</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>490</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="L123" t="str">
+        <f t="shared" si="1"/>
+        <v>hip</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>491</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>492</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>493</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>494</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>496</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" ref="L129:L192" si="2">IF(OR(F129=1,G129=1,H129=1,I129=1), A129, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>497</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>498</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="L131" t="str">
+        <f t="shared" si="2"/>
+        <v>faculty</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>499</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>500</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>501</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="L134" t="str">
+        <f t="shared" si="2"/>
+        <v>monster</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>502</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="L135" t="str">
+        <f t="shared" si="2"/>
+        <v>humanity</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>503</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>504</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>506</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>507</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="L140" t="str">
+        <f t="shared" si="2"/>
+        <v>commonwealth</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>508</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>509</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>510</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="L143" t="str">
+        <f t="shared" si="2"/>
+        <v>orange</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>511</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>512</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>513</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="L146" t="str">
+        <f t="shared" si="2"/>
+        <v>palm</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>514</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2"/>
+      <c r="L147" t="str">
+        <f t="shared" si="2"/>
+        <v>devil</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>515</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="L148" t="str">
+        <f t="shared" si="2"/>
+        <v>workforce</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>516</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>517</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>518</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="2"/>
+        <v>antibody</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>519</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>520</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="L153" t="str">
+        <f t="shared" si="2"/>
+        <v>nut</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>521</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="L154" t="str">
+        <f t="shared" si="2"/>
+        <v>regiment</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>522</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>523</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="L156" t="str">
+        <f t="shared" si="2"/>
+        <v>tomato</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>524</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2">
+        <v>1</v>
+      </c>
+      <c r="I157" s="2"/>
+      <c r="L157" t="str">
+        <f t="shared" si="2"/>
+        <v>saint</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>525</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="L158" t="str">
+        <f t="shared" si="2"/>
+        <v>oak</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>526</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="L159" t="str">
+        <f t="shared" si="2"/>
+        <v>straw</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>527</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="F160" s="2">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="L160" t="str">
+        <f t="shared" si="2"/>
+        <v>tribe</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>528</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="L161" t="str">
+        <f t="shared" si="2"/>
+        <v>clergy</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>529</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>530</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>531</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>532</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2">
+        <v>1</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="2"/>
+        <v>bacteria</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>533</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>534</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>535</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>536</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>537</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="L170" t="str">
+        <f t="shared" si="2"/>
+        <v>lemon</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>538</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>539</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="L172" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>540</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="L173" t="str">
+        <f t="shared" si="2"/>
+        <v>brigade</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>541</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="L174" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>542</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>543</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="L176" t="str">
+        <f t="shared" si="2"/>
+        <v>congregation</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>544</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="L177" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>545</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="L178" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>546</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="L179" t="str">
+        <f t="shared" si="2"/>
+        <v>corn</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>547</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="L180" t="str">
+        <f t="shared" si="2"/>
+        <v>onion</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>548</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="L181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>549</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="L182" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>550</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="L183" t="str">
+        <f t="shared" si="2"/>
+        <v>corps</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>551</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="L184" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>552</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="L185" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>553</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="L186" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>554</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="L187" t="str">
+        <f t="shared" si="2"/>
+        <v>pepper</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>555</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="L188" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>556</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="L189" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>557</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="L190" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>558</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="L191" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>559</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="L192" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>560</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="F193" s="2">
+        <v>1</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="L193" t="str">
+        <f t="shared" ref="L193:L256" si="3">IF(OR(F193=1,G193=1,H193=1,I193=1), A193, "")</f>
+        <v>native</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>561</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="F194" s="2">
+        <v>1</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="L194" t="str">
+        <f t="shared" si="3"/>
+        <v>choir</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="L195" t="str">
+        <f t="shared" si="3"/>
+        <v>herb</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>563</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="F196" s="2">
+        <v>1</v>
+      </c>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="L196" t="str">
+        <f t="shared" si="3"/>
+        <v>lobby</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>564</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="F197" s="2">
+        <v>1</v>
+      </c>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="L197" t="str">
+        <f t="shared" si="3"/>
+        <v>squadron</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>565</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="L198" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>566</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2">
+        <v>1</v>
+      </c>
+      <c r="I199" s="2"/>
+      <c r="L199" t="str">
+        <f t="shared" si="3"/>
+        <v>dragon</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>567</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="L200" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>568</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="L201" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>569</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="F202" s="2">
+        <v>1</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="L202" t="str">
+        <f t="shared" si="3"/>
+        <v>chorus</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>570</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="L203" t="str">
+        <f t="shared" si="3"/>
+        <v>ash</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>571</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="L204" t="str">
+        <f t="shared" si="3"/>
+        <v>bass</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>572</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="L205" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>573</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="F206" s="2">
+        <v>1</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="L206" t="str">
+        <f t="shared" si="3"/>
+        <v>vegetation</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>574</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="F207" s="2">
+        <v>1</v>
+      </c>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="L207" t="str">
+        <f t="shared" si="3"/>
+        <v>flock</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>575</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>576</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="F209" s="2">
+        <v>1</v>
+      </c>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="L209" t="str">
+        <f t="shared" si="3"/>
+        <v>herd</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>577</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>578</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="L211" t="str">
+        <f t="shared" si="3"/>
+        <v>wheat</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>579</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>580</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="L213" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>581</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>582</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="L215" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>583</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2">
+        <v>1</v>
+      </c>
+      <c r="I216" s="2"/>
+      <c r="L216" t="str">
+        <f t="shared" si="3"/>
+        <v>fairy</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>584</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="L217" t="str">
+        <f t="shared" si="3"/>
+        <v>holly</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>585</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="L218" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>586</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="F219" s="2">
+        <v>1</v>
+      </c>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="L219" t="str">
+        <f t="shared" si="3"/>
+        <v>nationality</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>587</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="L220" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>588</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="L221" t="str">
+        <f t="shared" si="3"/>
+        <v>pine</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>589</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="L222" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>590</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>591</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>592</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="L225" t="str">
+        <f t="shared" si="3"/>
+        <v>embryo</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>593</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>594</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="L227" t="str">
+        <f t="shared" si="3"/>
+        <v>banana</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>595</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>596</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>597</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>598</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>599</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2">
+        <v>1</v>
+      </c>
+      <c r="I232" s="2"/>
+      <c r="L232" t="str">
+        <f t="shared" si="3"/>
+        <v>witch</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>600</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="L233" t="str">
+        <f t="shared" si="3"/>
+        <v>cereal</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>601</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="F234" s="2">
+        <v>1</v>
+      </c>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="L234" t="str">
+        <f t="shared" si="3"/>
+        <v>fold</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>602</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="F235" s="2">
+        <v>1</v>
+      </c>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="L235" t="str">
+        <f t="shared" si="3"/>
+        <v>electorate</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>603</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="L236" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>604</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="L237" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>605</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>606</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="L239" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>607</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="L240" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>608</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>609</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="L242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>610</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="L243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>611</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="L244" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>612</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="L245" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>613</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="L246" t="str">
+        <f t="shared" si="3"/>
+        <v>weed</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>614</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="L247" t="str">
+        <f t="shared" si="3"/>
+        <v>carrot</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>615</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="L248" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>616</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="L249" t="str">
+        <f t="shared" si="3"/>
+        <v>shrub</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>617</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="L250" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>618</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="L251" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>619</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="L252" t="str">
+        <f t="shared" si="3"/>
+        <v>mushroom</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>620</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="L253" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>621</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="L254" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>622</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="F255" s="2">
+        <v>1</v>
+      </c>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="L255" t="str">
+        <f t="shared" si="3"/>
+        <v>mankind</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>623</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="L256" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>624</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="L257" t="str">
+        <f t="shared" ref="L257:L262" si="4">IF(OR(F257=1,G257=1,H257=1,I257=1), A257, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>625</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="L258" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>626</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="L259" t="str">
+        <f t="shared" si="4"/>
+        <v>pasture</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>627</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="L260" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>628</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="L261" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>629</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="L262" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>630</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="L1:L263" xr:uid="{38C60E2D-20C7-4A25-BDCF-E69AB4173789}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L263">
+      <sortCondition ref="L1:L263"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:L268">
+    <sortCondition ref="L1:L268"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFFB6A-9094-4D10-BEC6-B6D64C2D198B}">
+  <dimension ref="D2:G119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF($F$2:$F$118,D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF($D$2:$D$115,F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">COUNTIF($F$2:$F$118,D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">COUNTIF($D$2:$D$115,F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>594</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>614</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>406</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>600</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>543</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>441</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>442</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>451</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>454</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>514</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>566</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>467</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>602</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>592</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>498</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>583</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>502</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>507</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>421</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>515</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>470</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>521</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>574</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>527</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>528</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>601</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>540</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>451</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>543</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>550</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>560</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>481</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>561</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>486</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>563</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>408</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>564</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>569</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>432</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>573</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>562</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>574</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>576</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>576</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>490</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>586</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>584</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>601</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>410</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>602</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>502</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>622</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>447</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>518</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>464</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>532</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>388</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>563</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>404</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>418</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E115" si="2">COUNTIF($F$2:$F$118,D67)</f>
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>405</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G118" si="3">COUNTIF($D$2:$D$115,F67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>622</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>416</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>412</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>422</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>501</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>619</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>432</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>586</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>437</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>560</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>440</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>520</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>444</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>525</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>464</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>547</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>510</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>472</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>487</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>490</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>420</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>513</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>370</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>520</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>626</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>523</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>554</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>525</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>430</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>588</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>388</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>546</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>377</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>547</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>554</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>403</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>521</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>570</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>426</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>571</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>524</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>573</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>440</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>578</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>616</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>584</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>396</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>588</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>442</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>592</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>564</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>594</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>526</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>600</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>613</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>523</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>614</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>384</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>616</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>387</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>619</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>527</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>626</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>413</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>396</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>573</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>408</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>475</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>418</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>613</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>424</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>578</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>476</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>463</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>481</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>467</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>486</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>599</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>501</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>514</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>515</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>524</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <f>SUM(E2:E114)</f>
+        <v>116</v>
+      </c>
+      <c r="F116" t="s">
+        <v>566</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>583</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>599</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <f>SUM(G2:G118)</f>
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D115">
+    <sortCondition ref="D2:D115"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>